--- a/biology/Botanique/Phyllostachys_reticulata/Phyllostachys_reticulata.xlsx
+++ b/biology/Botanique/Phyllostachys_reticulata/Phyllostachys_reticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllostachys reticulata (synonyme : Phyllostachys bambusoides), est une espèce de plantes à fleurs monocotylédones de la famille des Poaceae (graminées), sous-famille des Bambusoideae, originaire de Chine.
-Ce bambou est connu sous les noms communs de bambou géant ou madaké (du japonais 真竹 (まだけ)[2]).
+Ce bambou est connu sous les noms communs de bambou géant ou madaké (du japonais 真竹 (まだけ)).
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Chine, Phyllostachys reticulata peut atteindre une hauteur de 20 m et un diamètre des chaumes de 10–15 cm[3]. En France la hauteur rapportée est de seulement 6 à 12 m[4], voire 15 m[5]. Les chaumes sont vert foncé, très épais et très droits, munis d'un anneau cireux (pruineux) sous les nœuds[5]. Les feuilles sont vert foncé également.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Chine, Phyllostachys reticulata peut atteindre une hauteur de 20 m et un diamètre des chaumes de 10–15 cm. En France la hauteur rapportée est de seulement 6 à 12 m, voire 15 m. Les chaumes sont vert foncé, très épais et très droits, munis d'un anneau cireux (pruineux) sous les nœuds. Les feuilles sont vert foncé également.
 Les nouvelles pousses sortent du sol en fin de printemps et atteignent très rapidement leur taille finale, leur croissance pouvant aller jusqu'à 1 mètre par jour[Information douteuse][réf. nécessaire].
-La gaine caulinaire est brun-jaune, parfois teintée de pourpre ou de vert, généralement glabre ou portant une pubescence partielle brune. Des taches denses, brun-pourpres, de taille variables l'ornementent[3].
+La gaine caulinaire est brun-jaune, parfois teintée de pourpre ou de vert, généralement glabre ou portant une pubescence partielle brune. Des taches denses, brun-pourpres, de taille variables l'ornementent.
 Au sommet de la gaine se trouvent, à la base du limbe, des oreillettes généralement grandes et en faux (rarement petites ou absentes), avec des soies radiées.
 La ligule peut être verte à brune, arquée et ciliée.
-Le limbe des gaines caulinaires est en général vert au centre virant au brun-pourpre sur les côtés, avec des marges jaunes pales. Il est allongé, et normalement plat, voire légèrement froissé[3]. 
+Le limbe des gaines caulinaires est en général vert au centre virant au brun-pourpre sur les côtés, avec des marges jaunes pales. Il est allongé, et normalement plat, voire légèrement froissé. 
 			Pousse de P. bambusoides à la bambouseraie de Prafrance
 			Pousse de Madaké à Narita (成田市) au Japon
 </t>
@@ -550,7 +564,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les autres sortes de bambous, la floraison, qui marque la fin de la croissance et la fin de la vie du bambou, n'intervient qu'au bout de très nombreuses années, pouvant aller de 90 jusqu'à 130 ans. Comme de nombreuses autres graminées, quand il a fleuri et est venu à graine, le bambou disperse ses graines et meurt. La floraison des bambous d'une même espèce intervient de façon simultanée dans le monde entier. C'est ce qui a été observé pour le bambou parapluie, Fargesia murielae en 1998.
 </t>
@@ -581,11 +597,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Phyllostachys reticulata se situe en Chine (Fujian, Henan, Hebei, Hunan, Hubei, Jiangxi, Guangdong, Guizhou, Shaanxi, Sichuan, Yunnan, Guangxi).
-L'espèce s'est naturalisée en Inde, en Australie et en Nouvelle-Zélande, mais elle est cultivée couramment dans le monde entier et plus particulièrement à Taïwan, au Japon, au Laos, en Europe, aux États-Unis et dans les Antilles[6].
-En Europe on la rencontre en France[7] (principalement relevée en Franche-Comté, Côte d'Azur, Landes de Gascogne), en Italie (Piémont)[8], en Espagne (Catalogne[9] et Asturies[10]), en Suisse[11] et en Grande Bretagne[12]. En 2024 il n'est pas recensé au Portugal[13].
+L'espèce s'est naturalisée en Inde, en Australie et en Nouvelle-Zélande, mais elle est cultivée couramment dans le monde entier et plus particulièrement à Taïwan, au Japon, au Laos, en Europe, aux États-Unis et dans les Antilles.
+En Europe on la rencontre en France (principalement relevée en Franche-Comté, Côte d'Azur, Landes de Gascogne), en Italie (Piémont), en Espagne (Catalogne et Asturies), en Suisse et en Grande Bretagne. En 2024 il n'est pas recensé au Portugal.
 </t>
         </is>
       </c>
